--- a/plan/微服务工作计划.xlsx
+++ b/plan/微服务工作计划.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060BC440-A7D1-4BF6-A382-EBD0B49C1498}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20869F18-6FAA-48B0-96EC-DF89796254A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ACC784CE-6BA7-4857-A17F-37B6681AB0C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ACC784CE-6BA7-4857-A17F-37B6681AB0C0}"/>
   </bookViews>
   <sheets>
     <sheet name="3月份工作计划" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="72">
   <si>
     <t>在此工作表中创建“工作计划”。
 此工作表的标题位于单元格 C1 中。
@@ -298,10 +298,6 @@
       </rPr>
       <t>​​</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">研究Apache ServiceComb微服务解决方案 </t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -658,6 +654,30 @@
   </si>
   <si>
     <t>微服务概念内部介绍和交流学习</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">学习微服务引擎(Cloud Service Engine) 解决方案 </t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">学习微服务云应用平台ServiceStage解决方案 </t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">研究微服务云应用平台ServiceStage解决方案 </t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习华为云应用运维管理（Application Operations Management，简称AOM）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论交流华为微服务云应用平台ServiceStage</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">研究腾讯微服务平台TSF解决方案 </t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1204,7 +1224,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -1236,6 +1256,9 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3925,9 +3948,7 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3941,12 +3962,12 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -3982,7 +4003,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4022,7 +4043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -4033,10 +4054,10 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4047,13 +4068,13 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
         <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4061,10 +4082,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8"/>
     </row>
@@ -4077,12 +4098,12 @@
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4102,7 +4123,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4130,7 +4151,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4138,24 +4159,24 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4186,9 +4207,7 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4202,12 +4221,12 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -4237,13 +4256,13 @@
         <v>42</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4271,16 +4290,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4288,27 +4307,34 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
@@ -4319,12 +4345,12 @@
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4338,13 +4364,13 @@
         <v>35</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4381,12 +4407,12 @@
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4417,9 +4443,7 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4433,12 +4457,12 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -4468,13 +4492,13 @@
         <v>37</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4502,16 +4526,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4519,16 +4543,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4550,12 +4574,12 @@
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:6" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4572,10 +4596,10 @@
         <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4612,12 +4636,12 @@
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4657,12 +4681,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="40.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
